--- a/_design_doc/AccessibilityGuidelines-Basic-Checklist.xlsx
+++ b/_design_doc/AccessibilityGuidelines-Basic-Checklist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t xml:space="preserve">Guideline</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include an option to adjust the sensitivity of controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse sens?</t>
   </si>
   <si>
     <t xml:space="preserve">Ensure interactive elements / virtual controls are large and well spaced, particularly on small or touch screens</t>
@@ -235,7 +238,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +249,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.3499"/>
         <bgColor rgb="FF3C3C3C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -292,32 +301,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,15 +334,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -622,9 +635,9 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,28 +713,30 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>7</v>
@@ -729,7 +744,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -737,7 +752,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -745,7 +760,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -753,7 +768,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -761,32 +776,32 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,23 +811,23 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
@@ -820,7 +835,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -828,7 +843,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -836,33 +851,33 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" s="8" customFormat="true" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="true" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
@@ -870,25 +885,25 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
@@ -896,7 +911,7 @@
     </row>
     <row r="44" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,7 +921,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>9</v>
@@ -914,7 +929,7 @@
     </row>
     <row r="49" customFormat="false" ht="30.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,7 +939,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -932,56 +947,56 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" s="8" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="9" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
     </row>
-    <row r="101" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
     </row>
-    <row r="108" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1"/>
     </row>
-    <row r="110" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1"/>
     </row>
   </sheetData>

--- a/_design_doc/AccessibilityGuidelines-Basic-Checklist.xlsx
+++ b/_design_doc/AccessibilityGuidelines-Basic-Checklist.xlsx
@@ -635,9 +635,9 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -890,7 +890,7 @@
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
